--- a/Excel/Amulet.xlsx
+++ b/Excel/Amulet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\UE4RougeLikeGithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76E053F-C82E-4EA1-9860-EC37CA7C158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6ECEC7-5E6B-4F3A-84D0-A1237ED6A03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
